--- a/wb1.xlsx
+++ b/wb1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vofan\PycharmProjects\AptecnyiSklad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8859270-3C5E-4DBC-92CC-179D7C1F8198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7317F5-61F5-41DF-BD7F-F616ACDBF0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{02238055-2595-452F-830F-EBF1F2B5A8A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02238055-2595-452F-830F-EBF1F2B5A8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A52"/>
+      <selection activeCell="D1" sqref="D1:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,7 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>185</v>
       </c>
     </row>
@@ -719,7 +719,7 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>5</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>1060</v>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>20</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>15</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>45</v>
       </c>
     </row>
@@ -789,7 +789,7 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>450</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>120</v>
       </c>
     </row>
@@ -817,7 +817,7 @@
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>86</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
       <c r="C11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>158</v>
       </c>
     </row>
@@ -845,7 +845,7 @@
       <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>26</v>
       </c>
     </row>
@@ -859,7 +859,7 @@
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>24</v>
       </c>
     </row>
@@ -873,7 +873,7 @@
       <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>17</v>
       </c>
     </row>
@@ -887,7 +887,7 @@
       <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>84</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
       <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>30</v>
       </c>
     </row>
@@ -915,7 +915,7 @@
       <c r="C17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>88</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
       <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>11</v>
       </c>
     </row>
@@ -943,7 +943,7 @@
       <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>50</v>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="C20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>25</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
       <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>102</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="C22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>455</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>65</v>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>650</v>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       <c r="C26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>3000</v>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>600</v>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       <c r="C28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>1820</v>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       <c r="C29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>2998</v>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="C30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>15</v>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="C31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>270</v>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       <c r="C32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>3000</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       <c r="C33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <v>399</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="C34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>184</v>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       <c r="C35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       <c r="C36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>757</v>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       <c r="C37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>400</v>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       <c r="C38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>280</v>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       <c r="C39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>96</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="C40" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>15</v>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       <c r="C41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="C42" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>4138</v>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="C43" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>84</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="C44" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>19</v>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       <c r="C45" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>43</v>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       <c r="C46" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="C47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>1196</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="C48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>437</v>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="C49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       <c r="C50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="5">
         <v>1400</v>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       <c r="C51" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="5">
         <v>271</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       <c r="C52" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="5">
         <v>66</v>
       </c>
     </row>
